--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2325"/>
+  <dimension ref="A1:G2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60519,10 +60519,8 @@
           <t>-0.2</t>
         </is>
       </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2213">
@@ -60556,10 +60554,8 @@
           <t>231.0K</t>
         </is>
       </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -60593,10 +60589,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -60626,10 +60620,8 @@
           <t>232.5K</t>
         </is>
       </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -60659,10 +60651,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2217">
@@ -60696,10 +60686,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2218">
@@ -60733,10 +60721,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2219">
@@ -60770,10 +60756,8 @@
           <t>4.05M</t>
         </is>
       </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2220">
@@ -60803,10 +60787,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2221">
@@ -60836,10 +60818,8 @@
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -60869,10 +60849,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -60902,10 +60880,8 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="G2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -60931,10 +60907,8 @@
       </c>
       <c r="E2224" t="inlineStr"/>
       <c r="F2224" t="inlineStr"/>
-      <c r="G2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -60960,10 +60934,8 @@
       </c>
       <c r="E2225" t="inlineStr"/>
       <c r="F2225" t="inlineStr"/>
-      <c r="G2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -60989,10 +60961,8 @@
       </c>
       <c r="E2226" t="inlineStr"/>
       <c r="F2226" t="inlineStr"/>
-      <c r="G2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -61018,10 +60988,8 @@
       </c>
       <c r="E2227" t="inlineStr"/>
       <c r="F2227" t="inlineStr"/>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -61047,10 +61015,8 @@
       </c>
       <c r="E2228" t="inlineStr"/>
       <c r="F2228" t="inlineStr"/>
-      <c r="G2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -61068,16 +61034,14 @@
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr"/>
       <c r="F2229" t="inlineStr"/>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2230">
       <c r="A2230" t="inlineStr">
         <is>
-          <t>Friday May 23 2025</t>
+          <t>Saturday May 31 2025</t>
         </is>
       </c>
       <c r="B2230" t="inlineStr"/>
@@ -61090,2449 +61054,28 @@
     <row r="2231">
       <c r="A2231" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2231" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/21</t>
-        </is>
-      </c>
-      <c r="C2231" t="inlineStr">
-        <is>
-          <t>$6.69T</t>
-        </is>
-      </c>
-      <c r="D2231" t="inlineStr">
-        <is>
-          <t>$6.71T</t>
-        </is>
-      </c>
+          <t>Sunday June 01 2025</t>
+        </is>
+      </c>
+      <c r="B2231" t="inlineStr"/>
+      <c r="C2231" t="inlineStr"/>
+      <c r="D2231" t="inlineStr"/>
       <c r="E2231" t="inlineStr"/>
       <c r="F2231" t="inlineStr"/>
-      <c r="G2231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2231" t="inlineStr"/>
     </row>
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2232" t="inlineStr">
-        <is>
-          <t>New Home SalesAPR</t>
-        </is>
-      </c>
+          <t>Monday June 02 2025</t>
+        </is>
+      </c>
+      <c r="B2232" t="inlineStr"/>
       <c r="C2232" t="inlineStr"/>
-      <c r="D2232" t="inlineStr">
-        <is>
-          <t>0.724M</t>
-        </is>
-      </c>
-      <c r="E2232" t="inlineStr">
-        <is>
-          <t>0.692M</t>
-        </is>
-      </c>
-      <c r="F2232" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="G2232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2233">
-      <c r="A2233" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2233" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2233" t="inlineStr"/>
-      <c r="D2233" t="inlineStr">
-        <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="E2233" t="inlineStr"/>
-      <c r="F2233" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="G2233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2234">
-      <c r="A2234" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2234" t="inlineStr">
-        <is>
-          <t>Fed Cook Speech</t>
-        </is>
-      </c>
-      <c r="C2234" t="inlineStr"/>
-      <c r="D2234" t="inlineStr"/>
-      <c r="E2234" t="inlineStr"/>
-      <c r="F2234" t="inlineStr"/>
-      <c r="G2234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2235">
-      <c r="A2235" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2235" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
-        </is>
-      </c>
-      <c r="C2235" t="inlineStr"/>
-      <c r="D2235" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="E2235" t="inlineStr"/>
-      <c r="F2235" t="inlineStr"/>
-      <c r="G2235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2236">
-      <c r="A2236" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2236" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
-        </is>
-      </c>
-      <c r="C2236" t="inlineStr"/>
-      <c r="D2236" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="E2236" t="inlineStr"/>
-      <c r="F2236" t="inlineStr"/>
-      <c r="G2236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2237">
-      <c r="A2237" t="inlineStr"/>
-      <c r="B2237" t="inlineStr">
-        <is>
-          <t>Building Permits FinalAPR</t>
-        </is>
-      </c>
-      <c r="C2237" t="inlineStr"/>
-      <c r="D2237" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E2237" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
-      <c r="F2237" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
-      <c r="G2237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2238">
-      <c r="A2238" t="inlineStr"/>
-      <c r="B2238" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalAPR</t>
-        </is>
-      </c>
-      <c r="C2238" t="inlineStr"/>
-      <c r="D2238" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2238" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="G2238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2239">
-      <c r="A2239" t="inlineStr">
-        <is>
-          <t>Monday May 26 2025</t>
-        </is>
-      </c>
-      <c r="B2239" t="inlineStr"/>
-      <c r="C2239" t="inlineStr"/>
-      <c r="D2239" t="inlineStr"/>
-      <c r="E2239" t="inlineStr"/>
-      <c r="F2239" t="inlineStr"/>
-      <c r="G2239" t="inlineStr"/>
-    </row>
-    <row r="2240">
-      <c r="A2240" t="inlineStr">
-        <is>
-          <t>12:10 AM</t>
-        </is>
-      </c>
-      <c r="B2240" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
-      <c r="C2240" t="inlineStr"/>
-      <c r="D2240" t="inlineStr"/>
-      <c r="E2240" t="inlineStr"/>
-      <c r="F2240" t="inlineStr"/>
-      <c r="G2240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2241">
-      <c r="A2241" t="inlineStr">
-        <is>
-          <t>Tuesday May 27 2025</t>
-        </is>
-      </c>
-      <c r="B2241" t="inlineStr"/>
-      <c r="C2241" t="inlineStr"/>
-      <c r="D2241" t="inlineStr"/>
-      <c r="E2241" t="inlineStr"/>
-      <c r="F2241" t="inlineStr"/>
-      <c r="G2241" t="inlineStr"/>
-    </row>
-    <row r="2242">
-      <c r="A2242" t="inlineStr">
-        <is>
-          <t>01:30 PM</t>
-        </is>
-      </c>
-      <c r="B2242" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C2242" t="inlineStr"/>
-      <c r="D2242" t="inlineStr"/>
-      <c r="E2242" t="inlineStr"/>
-      <c r="F2242" t="inlineStr"/>
-      <c r="G2242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2243">
-      <c r="A2243" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2243" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2243" t="inlineStr"/>
-      <c r="D2243" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E2243" t="inlineStr"/>
-      <c r="F2243" t="inlineStr">
-        <is>
-          <t>-6.8%</t>
-        </is>
-      </c>
-      <c r="G2243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2244">
-      <c r="A2244" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2244" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2244" t="inlineStr"/>
-      <c r="D2244" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E2244" t="inlineStr"/>
-      <c r="F2244" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G2244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2245">
-      <c r="A2245" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2245" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2245" t="inlineStr"/>
-      <c r="D2245" t="inlineStr">
-        <is>
-          <t>8.9%</t>
-        </is>
-      </c>
-      <c r="E2245" t="inlineStr"/>
-      <c r="F2245" t="inlineStr">
-        <is>
-          <t>-8.1%</t>
-        </is>
-      </c>
-      <c r="G2245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2246">
-      <c r="A2246" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2246" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirAPR</t>
-        </is>
-      </c>
-      <c r="C2246" t="inlineStr"/>
-      <c r="D2246" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E2246" t="inlineStr"/>
-      <c r="F2246" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2247">
-      <c r="A2247" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B2247" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/24</t>
-        </is>
-      </c>
-      <c r="C2247" t="inlineStr"/>
-      <c r="D2247" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="E2247" t="inlineStr"/>
-      <c r="F2247" t="inlineStr"/>
-      <c r="G2247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2248">
-      <c r="A2248" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2248" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYMAR</t>
-        </is>
-      </c>
-      <c r="C2248" t="inlineStr"/>
-      <c r="D2248" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E2248" t="inlineStr"/>
-      <c r="F2248" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G2248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2249">
-      <c r="A2249" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2249" t="inlineStr">
-        <is>
-          <t>House Price IndexMAR</t>
-        </is>
-      </c>
-      <c r="C2249" t="inlineStr"/>
-      <c r="D2249" t="inlineStr">
-        <is>
-          <t>437.3</t>
-        </is>
-      </c>
-      <c r="E2249" t="inlineStr"/>
-      <c r="F2249" t="inlineStr">
-        <is>
-          <t>438.1</t>
-        </is>
-      </c>
-      <c r="G2249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2250">
-      <c r="A2250" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2250" t="inlineStr">
-        <is>
-          <t>House Price Index MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2250" t="inlineStr"/>
-      <c r="D2250" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E2250" t="inlineStr"/>
-      <c r="F2250" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2251">
-      <c r="A2251" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2251" t="inlineStr">
-        <is>
-          <t>House Price Index YoYMAR</t>
-        </is>
-      </c>
-      <c r="C2251" t="inlineStr"/>
-      <c r="D2251" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E2251" t="inlineStr"/>
-      <c r="F2251" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G2251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2252">
-      <c r="A2252" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2252" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMMAR</t>
-        </is>
-      </c>
-      <c r="C2252" t="inlineStr"/>
-      <c r="D2252" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E2252" t="inlineStr"/>
-      <c r="F2252" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G2252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2253">
-      <c r="A2253" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2253" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceMAY</t>
-        </is>
-      </c>
-      <c r="C2253" t="inlineStr"/>
-      <c r="D2253" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E2253" t="inlineStr"/>
-      <c r="F2253" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G2253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2254">
-      <c r="A2254" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2254" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2254" t="inlineStr"/>
-      <c r="D2254" t="inlineStr">
-        <is>
-          <t>-35.8</t>
-        </is>
-      </c>
-      <c r="E2254" t="inlineStr"/>
-      <c r="F2254" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G2254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2255">
-      <c r="A2255" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2255" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2255" t="inlineStr"/>
-      <c r="D2255" t="inlineStr">
-        <is>
-          <t>4.285%</t>
-        </is>
-      </c>
-      <c r="E2255" t="inlineStr"/>
-      <c r="F2255" t="inlineStr"/>
-      <c r="G2255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2256">
-      <c r="A2256" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2256" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2256" t="inlineStr"/>
-      <c r="D2256" t="inlineStr">
-        <is>
-          <t>4.140%</t>
-        </is>
-      </c>
-      <c r="E2256" t="inlineStr"/>
-      <c r="F2256" t="inlineStr"/>
-      <c r="G2256" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2257">
-      <c r="A2257" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2257" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2257" t="inlineStr"/>
-      <c r="D2257" t="inlineStr">
-        <is>
-          <t>3.795%</t>
-        </is>
-      </c>
-      <c r="E2257" t="inlineStr"/>
-      <c r="F2257" t="inlineStr"/>
-      <c r="G2257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2258">
-      <c r="A2258" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2258" t="inlineStr">
-        <is>
-          <t>Money SupplyAPR</t>
-        </is>
-      </c>
-      <c r="C2258" t="inlineStr"/>
-      <c r="D2258" t="inlineStr">
-        <is>
-          <t>$21.76T</t>
-        </is>
-      </c>
-      <c r="E2258" t="inlineStr"/>
-      <c r="F2258" t="inlineStr"/>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2259">
-      <c r="A2259" t="inlineStr">
-        <is>
-          <t>Wednesday May 28 2025</t>
-        </is>
-      </c>
-      <c r="B2259" t="inlineStr"/>
-      <c r="C2259" t="inlineStr"/>
-      <c r="D2259" t="inlineStr"/>
-      <c r="E2259" t="inlineStr"/>
-      <c r="F2259" t="inlineStr"/>
-      <c r="G2259" t="inlineStr"/>
-    </row>
-    <row r="2260">
-      <c r="A2260" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2260" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/23</t>
-        </is>
-      </c>
-      <c r="C2260" t="inlineStr"/>
-      <c r="D2260" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E2260" t="inlineStr"/>
-      <c r="F2260" t="inlineStr"/>
-      <c r="G2260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2261">
-      <c r="A2261" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2261" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/23</t>
-        </is>
-      </c>
-      <c r="C2261" t="inlineStr"/>
-      <c r="D2261" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="E2261" t="inlineStr"/>
-      <c r="F2261" t="inlineStr"/>
-      <c r="G2261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2262">
-      <c r="A2262" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2262" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/23</t>
-        </is>
-      </c>
-      <c r="C2262" t="inlineStr"/>
-      <c r="D2262" t="inlineStr">
-        <is>
-          <t>238.5</t>
-        </is>
-      </c>
-      <c r="E2262" t="inlineStr"/>
-      <c r="F2262" t="inlineStr"/>
-      <c r="G2262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2263">
-      <c r="A2263" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2263" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/23</t>
-        </is>
-      </c>
-      <c r="C2263" t="inlineStr"/>
-      <c r="D2263" t="inlineStr">
-        <is>
-          <t>682.5</t>
-        </is>
-      </c>
-      <c r="E2263" t="inlineStr"/>
-      <c r="F2263" t="inlineStr"/>
-      <c r="G2263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2264">
-      <c r="A2264" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B2264" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/23</t>
-        </is>
-      </c>
-      <c r="C2264" t="inlineStr"/>
-      <c r="D2264" t="inlineStr">
-        <is>
-          <t>157.8</t>
-        </is>
-      </c>
-      <c r="E2264" t="inlineStr"/>
-      <c r="F2264" t="inlineStr"/>
-      <c r="G2264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2265">
-      <c r="A2265" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2265" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2265" t="inlineStr"/>
-      <c r="D2265" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="E2265" t="inlineStr"/>
-      <c r="F2265" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="G2265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2266">
-      <c r="A2266" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2266" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2266" t="inlineStr"/>
-      <c r="D2266" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="E2266" t="inlineStr"/>
-      <c r="F2266" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="G2266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2267">
-      <c r="A2267" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2267" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2267" t="inlineStr"/>
-      <c r="D2267" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="E2267" t="inlineStr"/>
-      <c r="F2267" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G2267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2268">
-      <c r="A2268" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2268" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2268" t="inlineStr"/>
-      <c r="D2268" t="inlineStr">
-        <is>
-          <t>-19.4</t>
-        </is>
-      </c>
-      <c r="E2268" t="inlineStr"/>
-      <c r="F2268" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="G2268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2269">
-      <c r="A2269" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2269" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexMAY</t>
-        </is>
-      </c>
-      <c r="C2269" t="inlineStr"/>
-      <c r="D2269" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="E2269" t="inlineStr"/>
-      <c r="F2269" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G2269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2270">
-      <c r="A2270" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2270" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2270" t="inlineStr"/>
-      <c r="D2270" t="inlineStr"/>
-      <c r="E2270" t="inlineStr"/>
-      <c r="F2270" t="inlineStr"/>
-      <c r="G2270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2271">
-      <c r="A2271" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2271" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2271" t="inlineStr"/>
-      <c r="D2271" t="inlineStr">
-        <is>
-          <t>3.995%</t>
-        </is>
-      </c>
-      <c r="E2271" t="inlineStr"/>
-      <c r="F2271" t="inlineStr"/>
-      <c r="G2271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2272">
-      <c r="A2272" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2272" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C2272" t="inlineStr"/>
-      <c r="D2272" t="inlineStr">
-        <is>
-          <t>0.160%</t>
-        </is>
-      </c>
-      <c r="E2272" t="inlineStr"/>
-      <c r="F2272" t="inlineStr"/>
-      <c r="G2272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2273">
-      <c r="A2273" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2273" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C2273" t="inlineStr"/>
-      <c r="D2273" t="inlineStr"/>
-      <c r="E2273" t="inlineStr"/>
-      <c r="F2273" t="inlineStr"/>
-      <c r="G2273" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2274">
-      <c r="A2274" t="inlineStr">
-        <is>
-          <t>Thursday May 29 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
-      <c r="C2274" t="inlineStr"/>
-      <c r="D2274" t="inlineStr"/>
-      <c r="E2274" t="inlineStr"/>
-      <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
-    </row>
-    <row r="2275">
-      <c r="A2275" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2275" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2275" t="inlineStr"/>
-      <c r="D2275" t="inlineStr">
-        <is>
-          <t>2.499M</t>
-        </is>
-      </c>
-      <c r="E2275" t="inlineStr"/>
-      <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2276">
-      <c r="A2276" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2276" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C2276" t="inlineStr"/>
-      <c r="D2276" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2276" t="inlineStr"/>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G2276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2277">
-      <c r="A2277" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2277" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C2277" t="inlineStr"/>
-      <c r="D2277" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E2277" t="inlineStr"/>
-      <c r="F2277" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G2277" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2278">
-      <c r="A2278" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2278" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C2278" t="inlineStr"/>
-      <c r="D2278" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2278" t="inlineStr"/>
-      <c r="F2278" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G2278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2279">
-      <c r="A2279" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2279" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/24</t>
-        </is>
-      </c>
-      <c r="C2279" t="inlineStr"/>
-      <c r="D2279" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E2279" t="inlineStr"/>
-      <c r="F2279" t="inlineStr"/>
-      <c r="G2279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2280">
-      <c r="A2280" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2280" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/17</t>
-        </is>
-      </c>
-      <c r="C2280" t="inlineStr"/>
-      <c r="D2280" t="inlineStr">
-        <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E2280" t="inlineStr"/>
-      <c r="F2280" t="inlineStr"/>
-      <c r="G2280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2281">
-      <c r="A2281" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2281" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C2281" t="inlineStr"/>
-      <c r="D2281" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F2281" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G2281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2282">
-      <c r="A2282" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2282" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C2282" t="inlineStr"/>
-      <c r="D2282" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="G2282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2283">
-      <c r="A2283" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2283" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/24</t>
-        </is>
-      </c>
-      <c r="C2283" t="inlineStr"/>
-      <c r="D2283" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="E2283" t="inlineStr"/>
-      <c r="F2283" t="inlineStr"/>
-      <c r="G2283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2284">
-      <c r="A2284" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2284" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C2284" t="inlineStr"/>
-      <c r="D2284" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E2284" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F2284" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G2284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2285">
-      <c r="A2285" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2285" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C2285" t="inlineStr"/>
-      <c r="D2285" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2285" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="F2285" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G2285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2286">
-      <c r="A2286" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2286" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2286" t="inlineStr"/>
-      <c r="D2286" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="E2286" t="inlineStr"/>
-      <c r="F2286" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="G2286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2287">
-      <c r="A2287" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2287" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2287" t="inlineStr"/>
-      <c r="D2287" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E2287" t="inlineStr"/>
-      <c r="F2287" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G2287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2288">
-      <c r="A2288" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B2288" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
-      <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
-      <c r="G2288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2289">
-      <c r="A2289" t="inlineStr">
-        <is>
-          <t>08:10 PM</t>
-        </is>
-      </c>
-      <c r="B2289" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C2289" t="inlineStr"/>
-      <c r="D2289" t="inlineStr"/>
-      <c r="E2289" t="inlineStr"/>
-      <c r="F2289" t="inlineStr"/>
-      <c r="G2289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2290">
-      <c r="A2290" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2290" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2290" t="inlineStr"/>
-      <c r="D2290" t="inlineStr"/>
-      <c r="E2290" t="inlineStr"/>
-      <c r="F2290" t="inlineStr"/>
-      <c r="G2290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2291">
-      <c r="A2291" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B2291" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C2291" t="inlineStr"/>
-      <c r="D2291" t="inlineStr"/>
-      <c r="E2291" t="inlineStr"/>
-      <c r="F2291" t="inlineStr"/>
-      <c r="G2291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2292">
-      <c r="A2292" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2292" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2292" t="inlineStr"/>
-      <c r="D2292" t="inlineStr">
-        <is>
-          <t>1.328M</t>
-        </is>
-      </c>
-      <c r="E2292" t="inlineStr"/>
-      <c r="F2292" t="inlineStr"/>
-      <c r="G2292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2293">
-      <c r="A2293" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2293" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2293" t="inlineStr"/>
-      <c r="D2293" t="inlineStr">
-        <is>
-          <t>0.816M</t>
-        </is>
-      </c>
-      <c r="E2293" t="inlineStr"/>
-      <c r="F2293" t="inlineStr"/>
-      <c r="G2293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2294">
-      <c r="A2294" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2294" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/29</t>
-        </is>
-      </c>
-      <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr"/>
-      <c r="E2294" t="inlineStr"/>
-      <c r="F2294" t="inlineStr"/>
-      <c r="G2294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2295">
-      <c r="A2295" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2295" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/29</t>
-        </is>
-      </c>
-      <c r="C2295" t="inlineStr"/>
-      <c r="D2295" t="inlineStr">
-        <is>
-          <t>6.86%</t>
-        </is>
-      </c>
-      <c r="E2295" t="inlineStr"/>
-      <c r="F2295" t="inlineStr"/>
-      <c r="G2295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2296">
-      <c r="A2296" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2296" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr"/>
-      <c r="E2296" t="inlineStr"/>
-      <c r="F2296" t="inlineStr"/>
-      <c r="G2296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2297">
-      <c r="A2297" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2297" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2297" t="inlineStr"/>
-      <c r="D2297" t="inlineStr">
-        <is>
-          <t>0.11M</t>
-        </is>
-      </c>
-      <c r="E2297" t="inlineStr"/>
-      <c r="F2297" t="inlineStr"/>
-      <c r="G2297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2298">
-      <c r="A2298" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2298" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2298" t="inlineStr"/>
-      <c r="D2298" t="inlineStr">
-        <is>
-          <t>-0.457M</t>
-        </is>
-      </c>
-      <c r="E2298" t="inlineStr"/>
-      <c r="F2298" t="inlineStr"/>
-      <c r="G2298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2299">
-      <c r="A2299" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2299" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2299" t="inlineStr"/>
-      <c r="D2299" t="inlineStr">
-        <is>
-          <t>0.131M</t>
-        </is>
-      </c>
-      <c r="E2299" t="inlineStr"/>
-      <c r="F2299" t="inlineStr"/>
-      <c r="G2299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2300">
-      <c r="A2300" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2300" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2300" t="inlineStr"/>
-      <c r="D2300" t="inlineStr">
-        <is>
-          <t>0.579M</t>
-        </is>
-      </c>
-      <c r="E2300" t="inlineStr"/>
-      <c r="F2300" t="inlineStr"/>
-      <c r="G2300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2301">
-      <c r="A2301" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2301" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2301" t="inlineStr"/>
-      <c r="D2301" t="inlineStr">
-        <is>
-          <t>0.178M</t>
-        </is>
-      </c>
-      <c r="E2301" t="inlineStr"/>
-      <c r="F2301" t="inlineStr"/>
-      <c r="G2301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2302">
-      <c r="A2302" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2302" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2302" t="inlineStr"/>
-      <c r="D2302" t="inlineStr">
-        <is>
-          <t>-0.348M</t>
-        </is>
-      </c>
-      <c r="E2302" t="inlineStr"/>
-      <c r="F2302" t="inlineStr"/>
-      <c r="G2302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2303">
-      <c r="A2303" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2303" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C2303" t="inlineStr"/>
-      <c r="D2303" t="inlineStr">
-        <is>
-          <t>0.089M</t>
-        </is>
-      </c>
-      <c r="E2303" t="inlineStr"/>
-      <c r="F2303" t="inlineStr"/>
-      <c r="G2303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2304">
-      <c r="A2304" t="inlineStr">
-        <is>
-          <t>Friday May 30 2025</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr"/>
-      <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr"/>
-      <c r="E2304" t="inlineStr"/>
-      <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
-    </row>
-    <row r="2305">
-      <c r="A2305" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/28</t>
-        </is>
-      </c>
-      <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>$6.69T</t>
-        </is>
-      </c>
-      <c r="E2305" t="inlineStr"/>
-      <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2306">
-      <c r="A2306" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2306" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2306" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2307">
-      <c r="A2307" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Personal Income MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2307" t="inlineStr"/>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2308">
-      <c r="A2308" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2308" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2308" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2309">
-      <c r="A2309" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2309" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvAPR</t>
-        </is>
-      </c>
-      <c r="C2309" t="inlineStr"/>
-      <c r="D2309" t="inlineStr">
-        <is>
-          <t>$-161.99B</t>
-        </is>
-      </c>
-      <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr">
-        <is>
-          <t>$-159.0B</t>
-        </is>
-      </c>
-      <c r="G2309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2310">
-      <c r="A2310" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2310" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2311">
-      <c r="A2311" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2311" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2311" t="inlineStr"/>
-      <c r="D2311" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E2311" t="inlineStr"/>
-      <c r="F2311" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G2311" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2312">
-      <c r="A2312" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2312" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
-        </is>
-      </c>
-      <c r="C2312" t="inlineStr"/>
-      <c r="D2312" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2312" t="inlineStr"/>
-      <c r="F2312" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G2312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2313">
-      <c r="A2313" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2313" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvAPR</t>
-        </is>
-      </c>
-      <c r="C2313" t="inlineStr"/>
-      <c r="D2313" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2313" t="inlineStr"/>
-      <c r="F2313" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G2313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2314">
-      <c r="A2314" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2314" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYAPR</t>
-        </is>
-      </c>
-      <c r="C2314" t="inlineStr"/>
-      <c r="D2314" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2314" t="inlineStr"/>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G2314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2315">
-      <c r="A2315" t="inlineStr">
-        <is>
-          <t>07:15 PM</t>
-        </is>
-      </c>
-      <c r="B2315" t="inlineStr">
-        <is>
-          <t>Chicago PMIMAY</t>
-        </is>
-      </c>
-      <c r="C2315" t="inlineStr"/>
-      <c r="D2315" t="inlineStr">
-        <is>
-          <t>44.6</t>
-        </is>
-      </c>
-      <c r="E2315" t="inlineStr"/>
-      <c r="F2315" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G2315" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2316">
-      <c r="A2316" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2316" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2316" t="inlineStr"/>
-      <c r="D2316" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F2316" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G2316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2317">
-      <c r="A2317" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2317" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2317" t="inlineStr"/>
-      <c r="D2317" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2317" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F2317" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="G2317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2318">
-      <c r="A2318" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2318" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2318" t="inlineStr"/>
-      <c r="D2318" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="F2318" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="G2318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2319">
-      <c r="A2319" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2319" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2319" t="inlineStr"/>
-      <c r="D2319" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
-      <c r="F2319" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
-      <c r="G2319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2320">
-      <c r="A2320" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2320" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalMAY</t>
-        </is>
-      </c>
-      <c r="C2320" t="inlineStr"/>
-      <c r="D2320" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E2320" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F2320" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G2320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2321">
-      <c r="A2321" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2321" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/30</t>
-        </is>
-      </c>
-      <c r="C2321" t="inlineStr"/>
-      <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
-      <c r="F2321" t="inlineStr"/>
-      <c r="G2321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2322">
-      <c r="A2322" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2322" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/30</t>
-        </is>
-      </c>
-      <c r="C2322" t="inlineStr"/>
-      <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr"/>
-      <c r="G2322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2323">
-      <c r="A2323" t="inlineStr">
-        <is>
-          <t>Saturday May 31 2025</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr"/>
-      <c r="C2323" t="inlineStr"/>
-      <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
-    </row>
-    <row r="2324">
-      <c r="A2324" t="inlineStr">
-        <is>
-          <t>Sunday June 01 2025</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr"/>
-      <c r="C2324" t="inlineStr"/>
-      <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr"/>
-    </row>
-    <row r="2325">
-      <c r="A2325" t="inlineStr">
-        <is>
-          <t>Monday June 02 2025</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr"/>
-      <c r="C2325" t="inlineStr"/>
-      <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr"/>
-      <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
+      <c r="D2232" t="inlineStr"/>
+      <c r="E2232" t="inlineStr"/>
+      <c r="F2232" t="inlineStr"/>
+      <c r="G2232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2325"/>
+  <dimension ref="A1:G2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60519,10 +60519,8 @@
           <t>-0.2</t>
         </is>
       </c>
-      <c r="G2212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2213">
@@ -60556,10 +60554,8 @@
           <t>231.0K</t>
         </is>
       </c>
-      <c r="G2213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2214">
@@ -60593,10 +60589,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="G2214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2215">
@@ -60626,10 +60620,8 @@
           <t>232.5K</t>
         </is>
       </c>
-      <c r="G2215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2216">
@@ -60659,10 +60651,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="G2216" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2217">
@@ -60696,10 +60686,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="G2217" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2218">
@@ -60733,10 +60721,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="G2218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2219">
@@ -60770,10 +60756,8 @@
           <t>4.05M</t>
         </is>
       </c>
-      <c r="G2219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G2219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2220">
@@ -60803,10 +60787,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G2220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2221">
@@ -60836,10 +60818,8 @@
         </is>
       </c>
       <c r="F2221" t="inlineStr"/>
-      <c r="G2221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2222">
@@ -60869,10 +60849,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G2222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2223">
@@ -60902,10 +60880,8 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="G2223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2224">
@@ -60931,10 +60907,8 @@
       </c>
       <c r="E2224" t="inlineStr"/>
       <c r="F2224" t="inlineStr"/>
-      <c r="G2224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2225">
@@ -60960,10 +60934,8 @@
       </c>
       <c r="E2225" t="inlineStr"/>
       <c r="F2225" t="inlineStr"/>
-      <c r="G2225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2226">
@@ -60989,10 +60961,8 @@
       </c>
       <c r="E2226" t="inlineStr"/>
       <c r="F2226" t="inlineStr"/>
-      <c r="G2226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2227">
@@ -61018,10 +60988,8 @@
       </c>
       <c r="E2227" t="inlineStr"/>
       <c r="F2227" t="inlineStr"/>
-      <c r="G2227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2228">
@@ -61047,10 +61015,8 @@
       </c>
       <c r="E2228" t="inlineStr"/>
       <c r="F2228" t="inlineStr"/>
-      <c r="G2228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G2228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2229">
@@ -61068,10 +61034,8 @@
       <c r="D2229" t="inlineStr"/>
       <c r="E2229" t="inlineStr"/>
       <c r="F2229" t="inlineStr"/>
-      <c r="G2229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G2229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2230">
@@ -61494,25 +61458,29 @@
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2247" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/24</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYMAR</t>
         </is>
       </c>
       <c r="C2247" t="inlineStr"/>
       <c r="D2247" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E2247" t="inlineStr"/>
-      <c r="F2247" t="inlineStr"/>
+      <c r="F2247" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G2247" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -61524,24 +61492,24 @@
       </c>
       <c r="B2248" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYMAR</t>
+          <t>House Price IndexMAR</t>
         </is>
       </c>
       <c r="C2248" t="inlineStr"/>
       <c r="D2248" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>437.3</t>
         </is>
       </c>
       <c r="E2248" t="inlineStr"/>
       <c r="F2248" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>438.1</t>
         </is>
       </c>
       <c r="G2248" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -61553,19 +61521,19 @@
       </c>
       <c r="B2249" t="inlineStr">
         <is>
-          <t>House Price IndexMAR</t>
+          <t>House Price Index MoMMAR</t>
         </is>
       </c>
       <c r="C2249" t="inlineStr"/>
       <c r="D2249" t="inlineStr">
         <is>
-          <t>437.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E2249" t="inlineStr"/>
       <c r="F2249" t="inlineStr">
         <is>
-          <t>438.1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2249" t="inlineStr">
@@ -61582,19 +61550,19 @@
       </c>
       <c r="B2250" t="inlineStr">
         <is>
-          <t>House Price Index MoMMAR</t>
+          <t>House Price Index YoYMAR</t>
         </is>
       </c>
       <c r="C2250" t="inlineStr"/>
       <c r="D2250" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E2250" t="inlineStr"/>
       <c r="F2250" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G2250" t="inlineStr">
@@ -61611,19 +61579,19 @@
       </c>
       <c r="B2251" t="inlineStr">
         <is>
-          <t>House Price Index YoYMAR</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMMAR</t>
         </is>
       </c>
       <c r="C2251" t="inlineStr"/>
       <c r="D2251" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E2251" t="inlineStr"/>
       <c r="F2251" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G2251" t="inlineStr">
@@ -61635,53 +61603,53 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2252" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMMAR</t>
+          <t>CB Consumer ConfidenceMAY</t>
         </is>
       </c>
       <c r="C2252" t="inlineStr"/>
       <c r="D2252" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>86.0</t>
         </is>
       </c>
       <c r="E2252" t="inlineStr"/>
       <c r="F2252" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G2252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2253">
       <c r="A2253" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2253" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceMAY</t>
+          <t>Dallas Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2253" t="inlineStr"/>
       <c r="D2253" t="inlineStr">
         <is>
-          <t>86.0</t>
+          <t>-35.8</t>
         </is>
       </c>
       <c r="E2253" t="inlineStr"/>
       <c r="F2253" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="G2253" t="inlineStr">
@@ -61693,29 +61661,25 @@
     <row r="2254">
       <c r="A2254" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2254" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexMAY</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2254" t="inlineStr"/>
       <c r="D2254" t="inlineStr">
         <is>
-          <t>-35.8</t>
+          <t>4.285%</t>
         </is>
       </c>
       <c r="E2254" t="inlineStr"/>
-      <c r="F2254" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="F2254" t="inlineStr"/>
       <c r="G2254" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -61727,13 +61691,13 @@
       </c>
       <c r="B2255" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C2255" t="inlineStr"/>
       <c r="D2255" t="inlineStr">
         <is>
-          <t>4.285%</t>
+          <t>4.140%</t>
         </is>
       </c>
       <c r="E2255" t="inlineStr"/>
@@ -61747,18 +61711,18 @@
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="C2256" t="inlineStr"/>
       <c r="D2256" t="inlineStr">
         <is>
-          <t>4.140%</t>
+          <t>3.795%</t>
         </is>
       </c>
       <c r="E2256" t="inlineStr"/>
@@ -61772,18 +61736,18 @@
     <row r="2257">
       <c r="A2257" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2257" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Money SupplyAPR</t>
         </is>
       </c>
       <c r="C2257" t="inlineStr"/>
       <c r="D2257" t="inlineStr">
         <is>
-          <t>3.795%</t>
+          <t>$21.76T</t>
         </is>
       </c>
       <c r="E2257" t="inlineStr"/>
@@ -61797,40 +61761,40 @@
     <row r="2258">
       <c r="A2258" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B2258" t="inlineStr">
-        <is>
-          <t>Money SupplyAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 28 2025</t>
+        </is>
+      </c>
+      <c r="B2258" t="inlineStr"/>
       <c r="C2258" t="inlineStr"/>
-      <c r="D2258" t="inlineStr">
-        <is>
-          <t>$21.76T</t>
-        </is>
-      </c>
+      <c r="D2258" t="inlineStr"/>
       <c r="E2258" t="inlineStr"/>
       <c r="F2258" t="inlineStr"/>
-      <c r="G2258" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2258" t="inlineStr"/>
     </row>
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>Wednesday May 28 2025</t>
-        </is>
-      </c>
-      <c r="B2259" t="inlineStr"/>
+          <t>04:30 PM</t>
+        </is>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>MBA 30-Year Mortgage RateMAY/23</t>
+        </is>
+      </c>
       <c r="C2259" t="inlineStr"/>
-      <c r="D2259" t="inlineStr"/>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>6.92%</t>
+        </is>
+      </c>
       <c r="E2259" t="inlineStr"/>
       <c r="F2259" t="inlineStr"/>
-      <c r="G2259" t="inlineStr"/>
+      <c r="G2259" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2260">
       <c r="A2260" t="inlineStr">
@@ -61840,20 +61804,20 @@
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/23</t>
+          <t>MBA Mortgage ApplicationsMAY/23</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr"/>
       <c r="D2260" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -61865,13 +61829,13 @@
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/23</t>
+          <t>MBA Mortgage Market IndexMAY/23</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr"/>
       <c r="D2261" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>238.5</t>
         </is>
       </c>
       <c r="E2261" t="inlineStr"/>
@@ -61890,13 +61854,13 @@
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/23</t>
+          <t>MBA Mortgage Refinance IndexMAY/23</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr"/>
       <c r="D2262" t="inlineStr">
         <is>
-          <t>238.5</t>
+          <t>682.5</t>
         </is>
       </c>
       <c r="E2262" t="inlineStr"/>
@@ -61915,13 +61879,13 @@
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/23</t>
+          <t>MBA Purchase IndexMAY/23</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr">
         <is>
-          <t>682.5</t>
+          <t>157.8</t>
         </is>
       </c>
       <c r="E2263" t="inlineStr"/>
@@ -61935,18 +61899,18 @@
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/23</t>
+          <t>Redbook YoYMAY/24</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr"/>
       <c r="D2264" t="inlineStr">
         <is>
-          <t>157.8</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="E2264" t="inlineStr"/>
@@ -62114,7 +62078,11 @@
         </is>
       </c>
       <c r="C2270" t="inlineStr"/>
-      <c r="D2270" t="inlineStr"/>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>4.230%</t>
+        </is>
+      </c>
       <c r="E2270" t="inlineStr"/>
       <c r="F2270" t="inlineStr"/>
       <c r="G2270" t="inlineStr">
@@ -62337,7 +62305,11 @@
         </is>
       </c>
       <c r="E2279" t="inlineStr"/>
-      <c r="F2279" t="inlineStr"/>
+      <c r="F2279" t="inlineStr">
+        <is>
+          <t>230K</t>
+        </is>
+      </c>
       <c r="G2279" t="inlineStr">
         <is>
           <t>2</t>
@@ -62362,7 +62334,11 @@
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
-      <c r="F2280" t="inlineStr"/>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>1907K</t>
+        </is>
+      </c>
       <c r="G2280" t="inlineStr">
         <is>
           <t>3</t>
@@ -62453,7 +62429,11 @@
         </is>
       </c>
       <c r="E2283" t="inlineStr"/>
-      <c r="F2283" t="inlineStr"/>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>233K</t>
+        </is>
+      </c>
       <c r="G2283" t="inlineStr">
         <is>
           <t>3</t>
@@ -62596,7 +62576,11 @@
         </is>
       </c>
       <c r="C2288" t="inlineStr"/>
-      <c r="D2288" t="inlineStr"/>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>120Bcf</t>
+        </is>
+      </c>
       <c r="E2288" t="inlineStr"/>
       <c r="F2288" t="inlineStr"/>
       <c r="G2288" t="inlineStr">
@@ -62638,7 +62622,11 @@
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
-      <c r="D2290" t="inlineStr"/>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>4.220%</t>
+        </is>
+      </c>
       <c r="E2290" t="inlineStr"/>
       <c r="F2290" t="inlineStr"/>
       <c r="G2290" t="inlineStr">
@@ -62659,7 +62647,11 @@
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
-      <c r="D2291" t="inlineStr"/>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr">
@@ -62730,7 +62722,11 @@
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
-      <c r="D2294" t="inlineStr"/>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>6.01%</t>
+        </is>
+      </c>
       <c r="E2294" t="inlineStr"/>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
@@ -62776,7 +62772,11 @@
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
-      <c r="D2296" t="inlineStr"/>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>4.123%</t>
+        </is>
+      </c>
       <c r="E2296" t="inlineStr"/>
       <c r="F2296" t="inlineStr"/>
       <c r="G2296" t="inlineStr">
@@ -62963,67 +62963,59 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>Friday May 30 2025</t>
-        </is>
-      </c>
-      <c r="B2304" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>Fed Kugler Speech</t>
+        </is>
+      </c>
       <c r="C2304" t="inlineStr"/>
       <c r="D2304" t="inlineStr"/>
       <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
-      <c r="G2304" t="inlineStr"/>
+      <c r="G2304" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/28</t>
-        </is>
-      </c>
+          <t>Friday May 30 2025</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr"/>
       <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr">
-        <is>
-          <t>$6.69T</t>
-        </is>
-      </c>
+      <c r="D2305" t="inlineStr"/>
       <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2305" t="inlineStr"/>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMAPR</t>
+          <t>Fed Balance SheetMAY/28</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr"/>
       <c r="D2306" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>$6.69T</t>
         </is>
       </c>
       <c r="E2306" t="inlineStr"/>
-      <c r="F2306" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -63035,19 +63027,19 @@
       </c>
       <c r="B2307" t="inlineStr">
         <is>
-          <t>Personal Income MoMAPR</t>
+          <t>Core PCE Price Index MoMAPR</t>
         </is>
       </c>
       <c r="C2307" t="inlineStr"/>
       <c r="D2307" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E2307" t="inlineStr"/>
       <c r="F2307" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2307" t="inlineStr">
@@ -63064,19 +63056,19 @@
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>Personal Spending MoMAPR</t>
+          <t>Personal Income MoMAPR</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr"/>
       <c r="D2308" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E2308" t="inlineStr"/>
       <c r="F2308" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G2308" t="inlineStr">
@@ -63093,24 +63085,24 @@
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvAPR</t>
+          <t>Personal Spending MoMAPR</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr"/>
       <c r="D2309" t="inlineStr">
         <is>
-          <t>$-161.99B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E2309" t="inlineStr"/>
       <c r="F2309" t="inlineStr">
         <is>
-          <t>$-159.0B</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -63122,19 +63114,19 @@
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMAPR</t>
+          <t>Goods Trade Balance AdvAPR</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr"/>
       <c r="D2310" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$-161.99B</t>
         </is>
       </c>
       <c r="E2310" t="inlineStr"/>
       <c r="F2310" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$-159.0B</t>
         </is>
       </c>
       <c r="G2310" t="inlineStr">
@@ -63151,19 +63143,19 @@
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYAPR</t>
+          <t>PCE Price Index MoMAPR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr"/>
       <c r="D2311" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2311" t="inlineStr"/>
       <c r="F2311" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2311" t="inlineStr">
@@ -63180,19 +63172,19 @@
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
+          <t>PCE Price Index YoYAPR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr"/>
       <c r="D2312" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E2312" t="inlineStr"/>
       <c r="F2312" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G2312" t="inlineStr">
@@ -63209,7 +63201,7 @@
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvAPR</t>
+          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr"/>
@@ -63221,7 +63213,7 @@
       <c r="E2313" t="inlineStr"/>
       <c r="F2313" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2313" t="inlineStr">
@@ -63238,81 +63230,77 @@
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYAPR</t>
+          <t>Wholesale Inventories MoM AdvAPR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr"/>
       <c r="D2314" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E2314" t="inlineStr"/>
       <c r="F2314" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G2314" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2315">
       <c r="A2315" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>Chicago PMIMAY</t>
+          <t>Core PCE Price Index YoYAPR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr"/>
       <c r="D2315" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E2315" t="inlineStr"/>
       <c r="F2315" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G2315" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalMAY</t>
+          <t>Chicago PMIMAY</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr"/>
       <c r="D2316" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2316" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>44.6</t>
+        </is>
+      </c>
+      <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G2316" t="inlineStr">
@@ -63329,28 +63317,28 @@
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
+          <t>Michigan Consumer Sentiment FinalMAY</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr"/>
       <c r="D2317" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2317" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2317" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G2317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -63362,23 +63350,23 @@
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalMAY</t>
+          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr"/>
       <c r="D2318" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E2318" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F2318" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="G2318" t="inlineStr">
@@ -63395,23 +63383,23 @@
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalMAY</t>
+          <t>Michigan Consumer Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr"/>
       <c r="D2319" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E2319" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="F2319" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="G2319" t="inlineStr">
@@ -63428,23 +63416,23 @@
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalMAY</t>
+          <t>Michigan Current Conditions FinalMAY</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr"/>
       <c r="D2320" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E2320" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="F2320" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="G2320" t="inlineStr">
@@ -63456,18 +63444,30 @@
     <row r="2321">
       <c r="A2321" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/30</t>
+          <t>Michigan Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr"/>
-      <c r="D2321" t="inlineStr"/>
-      <c r="E2321" t="inlineStr"/>
-      <c r="F2321" t="inlineStr"/>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="E2321" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F2321" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="G2321" t="inlineStr">
         <is>
           <t>3</t>
@@ -63482,7 +63482,7 @@
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/30</t>
+          <t>Baker Hughes Oil Rig CountMAY/30</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr"/>
@@ -63498,20 +63498,28 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>Saturday May 31 2025</t>
-        </is>
-      </c>
-      <c r="B2323" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/30</t>
+        </is>
+      </c>
       <c r="C2323" t="inlineStr"/>
       <c r="D2323" t="inlineStr"/>
       <c r="E2323" t="inlineStr"/>
       <c r="F2323" t="inlineStr"/>
-      <c r="G2323" t="inlineStr"/>
+      <c r="G2323" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>Sunday June 01 2025</t>
+          <t>Saturday May 31 2025</t>
         </is>
       </c>
       <c r="B2324" t="inlineStr"/>
@@ -63524,7 +63532,7 @@
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>Monday June 02 2025</t>
+          <t>Sunday June 01 2025</t>
         </is>
       </c>
       <c r="B2325" t="inlineStr"/>
@@ -63534,6 +63542,19 @@
       <c r="F2325" t="inlineStr"/>
       <c r="G2325" t="inlineStr"/>
     </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>Monday June 02 2025</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr"/>
+      <c r="C2326" t="inlineStr"/>
+      <c r="D2326" t="inlineStr"/>
+      <c r="E2326" t="inlineStr"/>
+      <c r="F2326" t="inlineStr"/>
+      <c r="G2326" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2326"/>
+  <dimension ref="A1:G2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61617,7 +61617,11 @@
           <t>86.0</t>
         </is>
       </c>
-      <c r="E2252" t="inlineStr"/>
+      <c r="E2252" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
       <c r="F2252" t="inlineStr">
         <is>
           <t>84</t>
@@ -61774,20 +61778,16 @@
     <row r="2259">
       <c r="A2259" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2259" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/23</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C2259" t="inlineStr"/>
-      <c r="D2259" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
+      <c r="D2259" t="inlineStr"/>
       <c r="E2259" t="inlineStr"/>
       <c r="F2259" t="inlineStr"/>
       <c r="G2259" t="inlineStr">
@@ -61804,20 +61804,20 @@
       </c>
       <c r="B2260" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/23</t>
+          <t>MBA 30-Year Mortgage RateMAY/23</t>
         </is>
       </c>
       <c r="C2260" t="inlineStr"/>
       <c r="D2260" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>6.92%</t>
         </is>
       </c>
       <c r="E2260" t="inlineStr"/>
       <c r="F2260" t="inlineStr"/>
       <c r="G2260" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -61829,13 +61829,13 @@
       </c>
       <c r="B2261" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/23</t>
+          <t>MBA Mortgage ApplicationsMAY/23</t>
         </is>
       </c>
       <c r="C2261" t="inlineStr"/>
       <c r="D2261" t="inlineStr">
         <is>
-          <t>238.5</t>
+          <t>-5.1%</t>
         </is>
       </c>
       <c r="E2261" t="inlineStr"/>
@@ -61854,13 +61854,13 @@
       </c>
       <c r="B2262" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/23</t>
+          <t>MBA Mortgage Market IndexMAY/23</t>
         </is>
       </c>
       <c r="C2262" t="inlineStr"/>
       <c r="D2262" t="inlineStr">
         <is>
-          <t>682.5</t>
+          <t>238.5</t>
         </is>
       </c>
       <c r="E2262" t="inlineStr"/>
@@ -61879,13 +61879,13 @@
       </c>
       <c r="B2263" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/23</t>
+          <t>MBA Mortgage Refinance IndexMAY/23</t>
         </is>
       </c>
       <c r="C2263" t="inlineStr"/>
       <c r="D2263" t="inlineStr">
         <is>
-          <t>157.8</t>
+          <t>682.5</t>
         </is>
       </c>
       <c r="E2263" t="inlineStr"/>
@@ -61899,18 +61899,18 @@
     <row r="2264">
       <c r="A2264" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B2264" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/24</t>
+          <t>MBA Purchase IndexMAY/23</t>
         </is>
       </c>
       <c r="C2264" t="inlineStr"/>
       <c r="D2264" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>157.8</t>
         </is>
       </c>
       <c r="E2264" t="inlineStr"/>
@@ -61924,26 +61924,22 @@
     <row r="2265">
       <c r="A2265" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:25 PM</t>
         </is>
       </c>
       <c r="B2265" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexMAY</t>
+          <t>Redbook YoYMAY/24</t>
         </is>
       </c>
       <c r="C2265" t="inlineStr"/>
       <c r="D2265" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="E2265" t="inlineStr"/>
-      <c r="F2265" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
+      <c r="F2265" t="inlineStr"/>
       <c r="G2265" t="inlineStr">
         <is>
           <t>3</t>
@@ -61958,13 +61954,13 @@
       </c>
       <c r="B2266" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAY</t>
+          <t>Richmond Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C2266" t="inlineStr"/>
       <c r="D2266" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="E2266" t="inlineStr"/>
@@ -61987,19 +61983,19 @@
       </c>
       <c r="B2267" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexMAY</t>
+          <t>Richmond Fed Manufacturing Shipments IndexMAY</t>
         </is>
       </c>
       <c r="C2267" t="inlineStr"/>
       <c r="D2267" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="E2267" t="inlineStr"/>
       <c r="F2267" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="G2267" t="inlineStr">
@@ -62011,24 +62007,24 @@
     <row r="2268">
       <c r="A2268" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2268" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexMAY</t>
+          <t>Richmond Fed Services Revenues IndexMAY</t>
         </is>
       </c>
       <c r="C2268" t="inlineStr"/>
       <c r="D2268" t="inlineStr">
         <is>
-          <t>-19.4</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="E2268" t="inlineStr"/>
       <c r="F2268" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G2268" t="inlineStr">
@@ -62045,19 +62041,19 @@
       </c>
       <c r="B2269" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexMAY</t>
+          <t>Dallas Fed Services IndexMAY</t>
         </is>
       </c>
       <c r="C2269" t="inlineStr"/>
       <c r="D2269" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-19.4</t>
         </is>
       </c>
       <c r="E2269" t="inlineStr"/>
       <c r="F2269" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G2269" t="inlineStr">
@@ -62069,22 +62065,26 @@
     <row r="2270">
       <c r="A2270" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2270" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Dallas Fed Services Revenues IndexMAY</t>
         </is>
       </c>
       <c r="C2270" t="inlineStr"/>
       <c r="D2270" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E2270" t="inlineStr"/>
-      <c r="F2270" t="inlineStr"/>
+      <c r="F2270" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="G2270" t="inlineStr">
         <is>
           <t>3</t>
@@ -62094,18 +62094,18 @@
     <row r="2271">
       <c r="A2271" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2271" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2271" t="inlineStr"/>
       <c r="D2271" t="inlineStr">
         <is>
-          <t>3.995%</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E2271" t="inlineStr"/>
@@ -62119,18 +62119,18 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr"/>
       <c r="D2272" t="inlineStr">
         <is>
-          <t>0.160%</t>
+          <t>3.995%</t>
         </is>
       </c>
       <c r="E2272" t="inlineStr"/>
@@ -62144,88 +62144,84 @@
     <row r="2273">
       <c r="A2273" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>FOMC Minutes</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr"/>
-      <c r="D2273" t="inlineStr"/>
+      <c r="D2273" t="inlineStr">
+        <is>
+          <t>0.160%</t>
+        </is>
+      </c>
       <c r="E2273" t="inlineStr"/>
       <c r="F2273" t="inlineStr"/>
       <c r="G2273" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="inlineStr">
         <is>
-          <t>Thursday May 29 2025</t>
-        </is>
-      </c>
-      <c r="B2274" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>FOMC Minutes</t>
+        </is>
+      </c>
       <c r="C2274" t="inlineStr"/>
       <c r="D2274" t="inlineStr"/>
       <c r="E2274" t="inlineStr"/>
       <c r="F2274" t="inlineStr"/>
-      <c r="G2274" t="inlineStr"/>
+      <c r="G2274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B2275" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/23</t>
-        </is>
-      </c>
+          <t>Thursday May 29 2025</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr"/>
       <c r="C2275" t="inlineStr"/>
-      <c r="D2275" t="inlineStr">
-        <is>
-          <t>2.499M</t>
-        </is>
-      </c>
+      <c r="D2275" t="inlineStr"/>
       <c r="E2275" t="inlineStr"/>
       <c r="F2275" t="inlineStr"/>
-      <c r="G2275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2275" t="inlineStr"/>
     </row>
     <row r="2276">
       <c r="A2276" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2276" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ1</t>
+          <t>API Crude Oil Stock ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2276" t="inlineStr"/>
       <c r="D2276" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.499M</t>
         </is>
       </c>
       <c r="E2276" t="inlineStr"/>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="F2276" t="inlineStr"/>
       <c r="G2276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -62237,24 +62233,28 @@
       </c>
       <c r="B2277" t="inlineStr">
         <is>
-          <t>Corporate Profits QoQ PrelQ1</t>
+          <t>GDP Growth Rate QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C2277" t="inlineStr"/>
       <c r="D2277" t="inlineStr">
         <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E2277" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E2277" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="F2277" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G2277" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -62266,19 +62266,19 @@
       </c>
       <c r="B2278" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ 2nd EstQ1</t>
+          <t>Corporate Profits QoQ PrelQ1</t>
         </is>
       </c>
       <c r="C2278" t="inlineStr"/>
       <c r="D2278" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>5.9%</t>
         </is>
       </c>
       <c r="E2278" t="inlineStr"/>
       <c r="F2278" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="G2278" t="inlineStr">
@@ -62295,21 +62295,13 @@
       </c>
       <c r="B2279" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/24</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C2279" t="inlineStr"/>
-      <c r="D2279" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
+      <c r="D2279" t="inlineStr"/>
       <c r="E2279" t="inlineStr"/>
-      <c r="F2279" t="inlineStr">
-        <is>
-          <t>230K</t>
-        </is>
-      </c>
+      <c r="F2279" t="inlineStr"/>
       <c r="G2279" t="inlineStr">
         <is>
           <t>2</t>
@@ -62324,24 +62316,24 @@
       </c>
       <c r="B2280" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/17</t>
+          <t>GDP Price Index QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C2280" t="inlineStr"/>
       <c r="D2280" t="inlineStr">
         <is>
-          <t>1903K</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E2280" t="inlineStr"/>
       <c r="F2280" t="inlineStr">
         <is>
-          <t>1907K</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G2280" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -62353,28 +62345,24 @@
       </c>
       <c r="B2281" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ 2nd EstQ1</t>
+          <t>Initial Jobless ClaimsMAY/24</t>
         </is>
       </c>
       <c r="C2281" t="inlineStr"/>
       <c r="D2281" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E2281" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="E2281" t="inlineStr"/>
       <c r="F2281" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>230K</t>
         </is>
       </c>
       <c r="G2281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -62386,23 +62374,19 @@
       </c>
       <c r="B2282" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ 2nd EstQ1</t>
+          <t>Continuing Jobless ClaimsMAY/17</t>
         </is>
       </c>
       <c r="C2282" t="inlineStr"/>
       <c r="D2282" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E2282" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
+          <t>1903K</t>
+        </is>
+      </c>
+      <c r="E2282" t="inlineStr"/>
       <c r="F2282" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>1907K</t>
         </is>
       </c>
       <c r="G2282" t="inlineStr">
@@ -62419,19 +62403,23 @@
       </c>
       <c r="B2283" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/24</t>
+          <t>Core PCE Prices QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C2283" t="inlineStr"/>
       <c r="D2283" t="inlineStr">
         <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="E2283" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E2283" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="F2283" t="inlineStr">
         <is>
-          <t>233K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G2283" t="inlineStr">
@@ -62448,23 +62436,23 @@
       </c>
       <c r="B2284" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ 2nd EstQ1</t>
+          <t>GDP Sales QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C2284" t="inlineStr"/>
       <c r="D2284" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E2284" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="F2284" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="G2284" t="inlineStr">
@@ -62481,23 +62469,19 @@
       </c>
       <c r="B2285" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ1</t>
+          <t>Jobless Claims 4-week AverageMAY/24</t>
         </is>
       </c>
       <c r="C2285" t="inlineStr"/>
       <c r="D2285" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E2285" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>231.5K</t>
+        </is>
+      </c>
+      <c r="E2285" t="inlineStr"/>
       <c r="F2285" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>233K</t>
         </is>
       </c>
       <c r="G2285" t="inlineStr">
@@ -62509,101 +62493,121 @@
     <row r="2286">
       <c r="A2286" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2286" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMAPR</t>
+          <t>PCE Prices QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C2286" t="inlineStr"/>
       <c r="D2286" t="inlineStr">
         <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="E2286" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E2286" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="F2286" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G2286" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2287">
       <c r="A2287" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2287" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYAPR</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C2287" t="inlineStr"/>
       <c r="D2287" t="inlineStr">
         <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E2287" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E2287" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="F2287" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="G2287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2288">
       <c r="A2288" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2288" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/23</t>
+          <t>Pending Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2288" t="inlineStr"/>
       <c r="D2288" t="inlineStr">
         <is>
-          <t>120Bcf</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="E2288" t="inlineStr"/>
-      <c r="F2288" t="inlineStr"/>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>-1.5%</t>
+        </is>
+      </c>
       <c r="G2288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2289">
       <c r="A2289" t="inlineStr">
         <is>
-          <t>08:10 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2289" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Pending Home Sales YoYAPR</t>
         </is>
       </c>
       <c r="C2289" t="inlineStr"/>
-      <c r="D2289" t="inlineStr"/>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>-0.6%</t>
+        </is>
+      </c>
       <c r="E2289" t="inlineStr"/>
-      <c r="F2289" t="inlineStr"/>
+      <c r="F2289" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G2289" t="inlineStr">
         <is>
           <t>2</t>
@@ -62613,18 +62617,18 @@
     <row r="2290">
       <c r="A2290" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B2290" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2290" t="inlineStr"/>
       <c r="D2290" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>120Bcf</t>
         </is>
       </c>
       <c r="E2290" t="inlineStr"/>
@@ -62638,75 +62642,71 @@
     <row r="2291">
       <c r="A2291" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:10 PM</t>
         </is>
       </c>
       <c r="B2291" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C2291" t="inlineStr"/>
-      <c r="D2291" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
+      <c r="D2291" t="inlineStr"/>
       <c r="E2291" t="inlineStr"/>
       <c r="F2291" t="inlineStr"/>
       <c r="G2291" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2292" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/23</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2292" t="inlineStr"/>
       <c r="D2292" t="inlineStr">
         <is>
-          <t>1.328M</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E2292" t="inlineStr"/>
       <c r="F2292" t="inlineStr"/>
       <c r="G2292" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2293" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/23</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C2293" t="inlineStr"/>
       <c r="D2293" t="inlineStr">
         <is>
-          <t>0.816M</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E2293" t="inlineStr"/>
       <c r="F2293" t="inlineStr"/>
       <c r="G2293" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -62718,20 +62718,20 @@
       </c>
       <c r="B2294" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/29</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2294" t="inlineStr"/>
       <c r="D2294" t="inlineStr">
         <is>
-          <t>6.01%</t>
+          <t>1.328M</t>
         </is>
       </c>
       <c r="E2294" t="inlineStr"/>
       <c r="F2294" t="inlineStr"/>
       <c r="G2294" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -62743,20 +62743,20 @@
       </c>
       <c r="B2295" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/29</t>
+          <t>EIA Gasoline Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2295" t="inlineStr"/>
       <c r="D2295" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>0.816M</t>
         </is>
       </c>
       <c r="E2295" t="inlineStr"/>
       <c r="F2295" t="inlineStr"/>
       <c r="G2295" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -62768,13 +62768,13 @@
       </c>
       <c r="B2296" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>15-Year Mortgage RateMAY/29</t>
         </is>
       </c>
       <c r="C2296" t="inlineStr"/>
       <c r="D2296" t="inlineStr">
         <is>
-          <t>4.123%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="E2296" t="inlineStr"/>
@@ -62793,13 +62793,13 @@
       </c>
       <c r="B2297" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/23</t>
+          <t>30-Year Mortgage RateMAY/29</t>
         </is>
       </c>
       <c r="C2297" t="inlineStr"/>
       <c r="D2297" t="inlineStr">
         <is>
-          <t>0.11M</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E2297" t="inlineStr"/>
@@ -62818,13 +62818,13 @@
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr"/>
       <c r="D2298" t="inlineStr">
         <is>
-          <t>-0.457M</t>
+          <t>4.123%</t>
         </is>
       </c>
       <c r="E2298" t="inlineStr"/>
@@ -62843,13 +62843,13 @@
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
+          <t>EIA Crude Oil Imports ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>0.131M</t>
+          <t>0.11M</t>
         </is>
       </c>
       <c r="E2299" t="inlineStr"/>
@@ -62868,13 +62868,13 @@
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/23</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>0.579M</t>
+          <t>-0.457M</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
@@ -62893,13 +62893,13 @@
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/23</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr"/>
       <c r="D2301" t="inlineStr">
         <is>
-          <t>0.178M</t>
+          <t>0.131M</t>
         </is>
       </c>
       <c r="E2301" t="inlineStr"/>
@@ -62918,13 +62918,13 @@
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
+          <t>EIA Distillate Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
       <c r="D2302" t="inlineStr">
         <is>
-          <t>-0.348M</t>
+          <t>0.579M</t>
         </is>
       </c>
       <c r="E2302" t="inlineStr"/>
@@ -62943,13 +62943,13 @@
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
+          <t>EIA Gasoline Production ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
       <c r="D2303" t="inlineStr">
         <is>
-          <t>0.089M</t>
+          <t>0.178M</t>
         </is>
       </c>
       <c r="E2303" t="inlineStr"/>
@@ -62963,172 +62963,148 @@
     <row r="2304">
       <c r="A2304" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr"/>
-      <c r="D2304" t="inlineStr"/>
+      <c r="D2304" t="inlineStr">
+        <is>
+          <t>-0.348M</t>
+        </is>
+      </c>
       <c r="E2304" t="inlineStr"/>
       <c r="F2304" t="inlineStr"/>
       <c r="G2304" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>Friday May 30 2025</t>
-        </is>
-      </c>
-      <c r="B2305" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
+        </is>
+      </c>
       <c r="C2305" t="inlineStr"/>
-      <c r="D2305" t="inlineStr"/>
+      <c r="D2305" t="inlineStr">
+        <is>
+          <t>0.089M</t>
+        </is>
+      </c>
       <c r="E2305" t="inlineStr"/>
       <c r="F2305" t="inlineStr"/>
-      <c r="G2305" t="inlineStr"/>
+      <c r="G2305" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2306">
       <c r="A2306" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2306" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAY/28</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C2306" t="inlineStr"/>
-      <c r="D2306" t="inlineStr">
-        <is>
-          <t>$6.69T</t>
-        </is>
-      </c>
+      <c r="D2306" t="inlineStr"/>
       <c r="E2306" t="inlineStr"/>
       <c r="F2306" t="inlineStr"/>
       <c r="G2306" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2307">
       <c r="A2307" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B2307" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMAPR</t>
-        </is>
-      </c>
+          <t>Friday May 30 2025</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr"/>
       <c r="C2307" t="inlineStr"/>
-      <c r="D2307" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
+      <c r="D2307" t="inlineStr"/>
       <c r="E2307" t="inlineStr"/>
-      <c r="F2307" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G2307" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F2307" t="inlineStr"/>
+      <c r="G2307" t="inlineStr"/>
     </row>
     <row r="2308">
       <c r="A2308" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B2308" t="inlineStr">
         <is>
-          <t>Personal Income MoMAPR</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C2308" t="inlineStr"/>
-      <c r="D2308" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D2308" t="inlineStr"/>
       <c r="E2308" t="inlineStr"/>
-      <c r="F2308" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F2308" t="inlineStr"/>
       <c r="G2308" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2309">
       <c r="A2309" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B2309" t="inlineStr">
         <is>
-          <t>Personal Spending MoMAPR</t>
+          <t>Fed Balance SheetMAY/28</t>
         </is>
       </c>
       <c r="C2309" t="inlineStr"/>
       <c r="D2309" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>$6.69T</t>
         </is>
       </c>
       <c r="E2309" t="inlineStr"/>
-      <c r="F2309" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F2309" t="inlineStr"/>
       <c r="G2309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2310">
       <c r="A2310" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2310" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvAPR</t>
+          <t>Fed Logan Speech</t>
         </is>
       </c>
       <c r="C2310" t="inlineStr"/>
-      <c r="D2310" t="inlineStr">
-        <is>
-          <t>$-161.99B</t>
-        </is>
-      </c>
+      <c r="D2310" t="inlineStr"/>
       <c r="E2310" t="inlineStr"/>
-      <c r="F2310" t="inlineStr">
-        <is>
-          <t>$-159.0B</t>
-        </is>
-      </c>
+      <c r="F2310" t="inlineStr"/>
       <c r="G2310" t="inlineStr">
         <is>
           <t>2</t>
@@ -63143,13 +63119,13 @@
       </c>
       <c r="B2311" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMAPR</t>
+          <t>Core PCE Price Index MoMAPR</t>
         </is>
       </c>
       <c r="C2311" t="inlineStr"/>
       <c r="D2311" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="E2311" t="inlineStr"/>
@@ -63160,7 +63136,7 @@
       </c>
       <c r="G2311" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -63172,24 +63148,24 @@
       </c>
       <c r="B2312" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYAPR</t>
+          <t>Personal Income MoMAPR</t>
         </is>
       </c>
       <c r="C2312" t="inlineStr"/>
       <c r="D2312" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E2312" t="inlineStr"/>
       <c r="F2312" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G2312" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -63201,24 +63177,28 @@
       </c>
       <c r="B2313" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
+          <t>Personal Spending MoMAPR</t>
         </is>
       </c>
       <c r="C2313" t="inlineStr"/>
       <c r="D2313" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E2313" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E2313" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2313" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G2313" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -63230,19 +63210,19 @@
       </c>
       <c r="B2314" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvAPR</t>
+          <t>Goods Trade Balance AdvAPR</t>
         </is>
       </c>
       <c r="C2314" t="inlineStr"/>
       <c r="D2314" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$-161.99B</t>
         </is>
       </c>
       <c r="E2314" t="inlineStr"/>
       <c r="F2314" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>$-159.0B</t>
         </is>
       </c>
       <c r="G2314" t="inlineStr">
@@ -63259,48 +63239,48 @@
       </c>
       <c r="B2315" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYAPR</t>
+          <t>PCE Price Index MoMAPR</t>
         </is>
       </c>
       <c r="C2315" t="inlineStr"/>
       <c r="D2315" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E2315" t="inlineStr"/>
       <c r="F2315" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G2315" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2316">
       <c r="A2316" t="inlineStr">
         <is>
-          <t>07:15 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2316" t="inlineStr">
         <is>
-          <t>Chicago PMIMAY</t>
+          <t>PCE Price Index YoYAPR</t>
         </is>
       </c>
       <c r="C2316" t="inlineStr"/>
       <c r="D2316" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E2316" t="inlineStr"/>
       <c r="F2316" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G2316" t="inlineStr">
@@ -63312,28 +63292,24 @@
     <row r="2317">
       <c r="A2317" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2317" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalMAY</t>
+          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
         </is>
       </c>
       <c r="C2317" t="inlineStr"/>
       <c r="D2317" t="inlineStr">
         <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E2317" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E2317" t="inlineStr"/>
       <c r="F2317" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G2317" t="inlineStr">
@@ -63345,61 +63321,53 @@
     <row r="2318">
       <c r="A2318" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2318" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
+          <t>Wholesale Inventories MoM AdvAPR</t>
         </is>
       </c>
       <c r="C2318" t="inlineStr"/>
       <c r="D2318" t="inlineStr">
         <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E2318" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E2318" t="inlineStr"/>
       <c r="F2318" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G2318" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2319">
       <c r="A2319" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B2319" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalMAY</t>
+          <t>Core PCE Price Index YoYAPR</t>
         </is>
       </c>
       <c r="C2319" t="inlineStr"/>
       <c r="D2319" t="inlineStr">
         <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E2319" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E2319" t="inlineStr"/>
       <c r="F2319" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G2319" t="inlineStr">
@@ -63411,33 +63379,29 @@
     <row r="2320">
       <c r="A2320" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:15 PM</t>
         </is>
       </c>
       <c r="B2320" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalMAY</t>
+          <t>Chicago PMIMAY</t>
         </is>
       </c>
       <c r="C2320" t="inlineStr"/>
       <c r="D2320" t="inlineStr">
         <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E2320" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
+          <t>44.6</t>
+        </is>
+      </c>
+      <c r="E2320" t="inlineStr"/>
       <c r="F2320" t="inlineStr">
         <is>
-          <t>57.6</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G2320" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -63449,46 +63413,58 @@
       </c>
       <c r="B2321" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalMAY</t>
+          <t>Michigan Consumer Sentiment FinalMAY</t>
         </is>
       </c>
       <c r="C2321" t="inlineStr"/>
       <c r="D2321" t="inlineStr">
         <is>
-          <t>6.5%</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="E2321" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F2321" t="inlineStr">
         <is>
-          <t>7.3%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G2321" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2322">
       <c r="A2322" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2322" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/30</t>
+          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C2322" t="inlineStr"/>
-      <c r="D2322" t="inlineStr"/>
-      <c r="E2322" t="inlineStr"/>
-      <c r="F2322" t="inlineStr"/>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="E2322" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
+      <c r="F2322" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="G2322" t="inlineStr">
         <is>
           <t>3</t>
@@ -63498,18 +63474,30 @@
     <row r="2323">
       <c r="A2323" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2323" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/30</t>
+          <t>Michigan Consumer Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C2323" t="inlineStr"/>
-      <c r="D2323" t="inlineStr"/>
-      <c r="E2323" t="inlineStr"/>
-      <c r="F2323" t="inlineStr"/>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>47.3</t>
+        </is>
+      </c>
+      <c r="E2323" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+      <c r="F2323" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
       <c r="G2323" t="inlineStr">
         <is>
           <t>3</t>
@@ -63519,41 +63507,191 @@
     <row r="2324">
       <c r="A2324" t="inlineStr">
         <is>
-          <t>Saturday May 31 2025</t>
-        </is>
-      </c>
-      <c r="B2324" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>Michigan Current Conditions FinalMAY</t>
+        </is>
+      </c>
       <c r="C2324" t="inlineStr"/>
-      <c r="D2324" t="inlineStr"/>
-      <c r="E2324" t="inlineStr"/>
-      <c r="F2324" t="inlineStr"/>
-      <c r="G2324" t="inlineStr"/>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
+      <c r="E2324" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+      <c r="F2324" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+      <c r="G2324" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2325">
       <c r="A2325" t="inlineStr">
         <is>
-          <t>Sunday June 01 2025</t>
-        </is>
-      </c>
-      <c r="B2325" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>Michigan Inflation Expectations FinalMAY</t>
+        </is>
+      </c>
       <c r="C2325" t="inlineStr"/>
-      <c r="D2325" t="inlineStr"/>
-      <c r="E2325" t="inlineStr"/>
-      <c r="F2325" t="inlineStr"/>
-      <c r="G2325" t="inlineStr"/>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="E2325" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F2325" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G2325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="2326">
       <c r="A2326" t="inlineStr">
         <is>
-          <t>Monday June 02 2025</t>
-        </is>
-      </c>
-      <c r="B2326" t="inlineStr"/>
+          <t>09:50 PM</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
       <c r="C2326" t="inlineStr"/>
       <c r="D2326" t="inlineStr"/>
       <c r="E2326" t="inlineStr"/>
       <c r="F2326" t="inlineStr"/>
-      <c r="G2326" t="inlineStr"/>
+      <c r="G2326" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAY/30</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr"/>
+      <c r="D2327" t="inlineStr"/>
+      <c r="E2327" t="inlineStr"/>
+      <c r="F2327" t="inlineStr"/>
+      <c r="G2327" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAY/30</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr"/>
+      <c r="D2328" t="inlineStr"/>
+      <c r="E2328" t="inlineStr"/>
+      <c r="F2328" t="inlineStr"/>
+      <c r="G2328" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>Saturday May 31 2025</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr"/>
+      <c r="C2329" t="inlineStr"/>
+      <c r="D2329" t="inlineStr"/>
+      <c r="E2329" t="inlineStr"/>
+      <c r="F2329" t="inlineStr"/>
+      <c r="G2329" t="inlineStr"/>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>05:00 AM</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>Fed Goolsbee Speech</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr"/>
+      <c r="D2330" t="inlineStr"/>
+      <c r="E2330" t="inlineStr"/>
+      <c r="F2330" t="inlineStr"/>
+      <c r="G2330" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>Sunday June 01 2025</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr"/>
+      <c r="C2331" t="inlineStr"/>
+      <c r="D2331" t="inlineStr"/>
+      <c r="E2331" t="inlineStr"/>
+      <c r="F2331" t="inlineStr"/>
+      <c r="G2331" t="inlineStr"/>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>Monday June 02 2025</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr"/>
+      <c r="C2332" t="inlineStr"/>
+      <c r="D2332" t="inlineStr"/>
+      <c r="E2332" t="inlineStr"/>
+      <c r="F2332" t="inlineStr"/>
+      <c r="G2332" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -61083,54 +61083,66 @@
     <row r="2232">
       <c r="A2232" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:40 PM</t>
         </is>
       </c>
       <c r="B2232" t="inlineStr">
         <is>
-          <t>New Home SalesAPR</t>
-        </is>
-      </c>
-      <c r="C2232" t="inlineStr"/>
+          <t>Building Permits FinalAPR</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>1.422M</t>
+        </is>
+      </c>
       <c r="D2232" t="inlineStr">
         <is>
-          <t>0.724M</t>
+          <t>1.481M</t>
         </is>
       </c>
       <c r="E2232" t="inlineStr">
         <is>
-          <t>0.692M</t>
+          <t>1.412M</t>
         </is>
       </c>
       <c r="F2232" t="inlineStr">
         <is>
-          <t>0.69M</t>
+          <t>1.412M</t>
         </is>
       </c>
       <c r="G2232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>05:40 PM</t>
         </is>
       </c>
       <c r="B2233" t="inlineStr">
         <is>
-          <t>New Home Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C2233" t="inlineStr"/>
+          <t>Building Permits MoM FinalAPR</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>-4%</t>
+        </is>
+      </c>
       <c r="D2233" t="inlineStr">
         <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="E2233" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E2233" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="F2233" t="inlineStr">
         <is>
           <t>-4.7%</t>
@@ -61138,25 +61150,37 @@
       </c>
       <c r="G2233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2234" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>New Home SalesAPR</t>
         </is>
       </c>
       <c r="C2234" t="inlineStr"/>
-      <c r="D2234" t="inlineStr"/>
-      <c r="E2234" t="inlineStr"/>
-      <c r="F2234" t="inlineStr"/>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>0.724M</t>
+        </is>
+      </c>
+      <c r="E2234" t="inlineStr">
+        <is>
+          <t>0.692M</t>
+        </is>
+      </c>
+      <c r="F2234" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="G2234" t="inlineStr">
         <is>
           <t>2</t>
@@ -61166,76 +61190,76 @@
     <row r="2235">
       <c r="A2235" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2235" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
+          <t>New Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C2235" t="inlineStr"/>
       <c r="D2235" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="E2235" t="inlineStr"/>
-      <c r="F2235" t="inlineStr"/>
+      <c r="F2235" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="G2235" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2236">
       <c r="A2236" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2236" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
+          <t>Fed Cook Speech</t>
         </is>
       </c>
       <c r="C2236" t="inlineStr"/>
-      <c r="D2236" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
+      <c r="D2236" t="inlineStr"/>
       <c r="E2236" t="inlineStr"/>
       <c r="F2236" t="inlineStr"/>
       <c r="G2236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2237">
-      <c r="A2237" t="inlineStr"/>
+      <c r="A2237" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2237" t="inlineStr">
         <is>
-          <t>Building Permits FinalAPR</t>
+          <t>Baker Hughes Oil Rig CountMAY/23</t>
         </is>
       </c>
       <c r="C2237" t="inlineStr"/>
       <c r="D2237" t="inlineStr">
         <is>
-          <t>1.467M</t>
+          <t>473</t>
         </is>
       </c>
       <c r="E2237" t="inlineStr">
         <is>
-          <t>1.412M</t>
-        </is>
-      </c>
-      <c r="F2237" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="F2237" t="inlineStr"/>
       <c r="G2237" t="inlineStr">
         <is>
           <t>3</t>
@@ -61243,28 +61267,24 @@
       </c>
     </row>
     <row r="2238">
-      <c r="A2238" t="inlineStr"/>
+      <c r="A2238" t="inlineStr">
+        <is>
+          <t>10:30 PM</t>
+        </is>
+      </c>
       <c r="B2238" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalAPR</t>
+          <t>Baker Hughes Total Rigs CountMAY/23</t>
         </is>
       </c>
       <c r="C2238" t="inlineStr"/>
       <c r="D2238" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E2238" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F2238" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="E2238" t="inlineStr"/>
+      <c r="F2238" t="inlineStr"/>
       <c r="G2238" t="inlineStr">
         <is>
           <t>3</t>
@@ -62325,7 +62345,11 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="E2280" t="inlineStr"/>
+      <c r="E2280" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2280" t="inlineStr">
         <is>
           <t>3.7%</t>
@@ -62354,7 +62378,11 @@
           <t>227K</t>
         </is>
       </c>
-      <c r="E2281" t="inlineStr"/>
+      <c r="E2281" t="inlineStr">
+        <is>
+          <t>230K</t>
+        </is>
+      </c>
       <c r="F2281" t="inlineStr">
         <is>
           <t>230K</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2332"/>
+  <dimension ref="A1:G2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61165,10 +61165,14 @@
           <t>New Home SalesAPR</t>
         </is>
       </c>
-      <c r="C2234" t="inlineStr"/>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>0.743M</t>
+        </is>
+      </c>
       <c r="D2234" t="inlineStr">
         <is>
-          <t>0.724M</t>
+          <t>0.67M</t>
         </is>
       </c>
       <c r="E2234" t="inlineStr">
@@ -61198,10 +61202,14 @@
           <t>New Home Sales MoMAPR</t>
         </is>
       </c>
-      <c r="C2235" t="inlineStr"/>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>10.9%</t>
+        </is>
+      </c>
       <c r="D2235" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E2235" t="inlineStr"/>
@@ -63721,6 +63729,148 @@
       <c r="F2332" t="inlineStr"/>
       <c r="G2332" t="inlineStr"/>
     </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>07:15 PM</t>
+        </is>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalMAY</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr"/>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="E2333" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="F2333" t="inlineStr">
+        <is>
+          <t>52.3</t>
+        </is>
+      </c>
+      <c r="G2333" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIMAY</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr"/>
+      <c r="D2334" t="inlineStr"/>
+      <c r="E2334" t="inlineStr"/>
+      <c r="F2334" t="inlineStr"/>
+      <c r="G2334" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentMAY</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr"/>
+      <c r="D2335" t="inlineStr"/>
+      <c r="E2335" t="inlineStr"/>
+      <c r="F2335" t="inlineStr"/>
+      <c r="G2335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMAPR</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr"/>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
+      <c r="E2336" t="inlineStr"/>
+      <c r="F2336" t="inlineStr"/>
+      <c r="G2336" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersMAY</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr"/>
+      <c r="D2337" t="inlineStr"/>
+      <c r="E2337" t="inlineStr"/>
+      <c r="F2337" t="inlineStr"/>
+      <c r="G2337" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesMAY</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr"/>
+      <c r="D2338" t="inlineStr"/>
+      <c r="E2338" t="inlineStr"/>
+      <c r="F2338" t="inlineStr"/>
+      <c r="G2338" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -61384,7 +61384,11 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="E2243" t="inlineStr"/>
+      <c r="E2243" t="inlineStr">
+        <is>
+          <t>-8%</t>
+        </is>
+      </c>
       <c r="F2243" t="inlineStr">
         <is>
           <t>-6.8%</t>
@@ -61413,7 +61417,11 @@
           <t>-0.4%</t>
         </is>
       </c>
-      <c r="E2244" t="inlineStr"/>
+      <c r="E2244" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F2244" t="inlineStr">
         <is>
           <t>-0.2%</t>
@@ -61500,7 +61508,11 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="E2247" t="inlineStr"/>
+      <c r="E2247" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F2247" t="inlineStr">
         <is>
           <t>4.2%</t>
@@ -61558,7 +61570,11 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="E2249" t="inlineStr"/>
+      <c r="E2249" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F2249" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -61743,7 +61759,7 @@
     <row r="2256">
       <c r="A2256" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2256" t="inlineStr">
@@ -62147,18 +62163,18 @@
     <row r="2272">
       <c r="A2272" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B2272" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C2272" t="inlineStr"/>
       <c r="D2272" t="inlineStr">
         <is>
-          <t>3.995%</t>
+          <t>0.160%</t>
         </is>
       </c>
       <c r="E2272" t="inlineStr"/>
@@ -62177,13 +62193,13 @@
       </c>
       <c r="B2273" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C2273" t="inlineStr"/>
       <c r="D2273" t="inlineStr">
         <is>
-          <t>0.160%</t>
+          <t>3.995%</t>
         </is>
       </c>
       <c r="E2273" t="inlineStr"/>
@@ -62854,13 +62870,13 @@
       </c>
       <c r="B2298" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>EIA Crude Oil Imports ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2298" t="inlineStr"/>
       <c r="D2298" t="inlineStr">
         <is>
-          <t>4.123%</t>
+          <t>0.11M</t>
         </is>
       </c>
       <c r="E2298" t="inlineStr"/>
@@ -62879,13 +62895,13 @@
       </c>
       <c r="B2299" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/23</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2299" t="inlineStr"/>
       <c r="D2299" t="inlineStr">
         <is>
-          <t>0.11M</t>
+          <t>-0.457M</t>
         </is>
       </c>
       <c r="E2299" t="inlineStr"/>
@@ -62904,13 +62920,13 @@
       </c>
       <c r="B2300" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2300" t="inlineStr"/>
       <c r="D2300" t="inlineStr">
         <is>
-          <t>-0.457M</t>
+          <t>0.131M</t>
         </is>
       </c>
       <c r="E2300" t="inlineStr"/>
@@ -62929,13 +62945,13 @@
       </c>
       <c r="B2301" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
+          <t>EIA Distillate Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2301" t="inlineStr"/>
       <c r="D2301" t="inlineStr">
         <is>
-          <t>0.131M</t>
+          <t>0.579M</t>
         </is>
       </c>
       <c r="E2301" t="inlineStr"/>
@@ -62954,13 +62970,13 @@
       </c>
       <c r="B2302" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/23</t>
+          <t>EIA Gasoline Production ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2302" t="inlineStr"/>
       <c r="D2302" t="inlineStr">
         <is>
-          <t>0.579M</t>
+          <t>0.178M</t>
         </is>
       </c>
       <c r="E2302" t="inlineStr"/>
@@ -62979,13 +62995,13 @@
       </c>
       <c r="B2303" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/23</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2303" t="inlineStr"/>
       <c r="D2303" t="inlineStr">
         <is>
-          <t>0.178M</t>
+          <t>-0.348M</t>
         </is>
       </c>
       <c r="E2303" t="inlineStr"/>
@@ -63004,13 +63020,13 @@
       </c>
       <c r="B2304" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
         </is>
       </c>
       <c r="C2304" t="inlineStr"/>
       <c r="D2304" t="inlineStr">
         <is>
-          <t>-0.348M</t>
+          <t>0.089M</t>
         </is>
       </c>
       <c r="E2304" t="inlineStr"/>
@@ -63024,18 +63040,18 @@
     <row r="2305">
       <c r="A2305" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B2305" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C2305" t="inlineStr"/>
       <c r="D2305" t="inlineStr">
         <is>
-          <t>0.089M</t>
+          <t>4.123%</t>
         </is>
       </c>
       <c r="E2305" t="inlineStr"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2338"/>
+  <dimension ref="A1:G2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63887,6 +63887,48 @@
         </is>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr"/>
+      <c r="D2339" t="inlineStr"/>
+      <c r="E2339" t="inlineStr"/>
+      <c r="F2339" t="inlineStr"/>
+      <c r="G2339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr"/>
+      <c r="D2340" t="inlineStr"/>
+      <c r="E2340" t="inlineStr"/>
+      <c r="F2340" t="inlineStr"/>
+      <c r="G2340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2340"/>
+  <dimension ref="A1:G2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61256,7 +61256,11 @@
           <t>Baker Hughes Oil Rig CountMAY/23</t>
         </is>
       </c>
-      <c r="C2237" t="inlineStr"/>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
       <c r="D2237" t="inlineStr">
         <is>
           <t>473</t>
@@ -61285,7 +61289,11 @@
           <t>Baker Hughes Total Rigs CountMAY/23</t>
         </is>
       </c>
-      <c r="C2238" t="inlineStr"/>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
       <c r="D2238" t="inlineStr">
         <is>
           <t>576</t>
@@ -63655,7 +63663,11 @@
         </is>
       </c>
       <c r="C2327" t="inlineStr"/>
-      <c r="D2327" t="inlineStr"/>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
       <c r="E2327" t="inlineStr"/>
       <c r="F2327" t="inlineStr"/>
       <c r="G2327" t="inlineStr">
@@ -63676,7 +63688,11 @@
         </is>
       </c>
       <c r="C2328" t="inlineStr"/>
-      <c r="D2328" t="inlineStr"/>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
       <c r="E2328" t="inlineStr"/>
       <c r="F2328" t="inlineStr"/>
       <c r="G2328" t="inlineStr">
@@ -63929,6 +63945,27 @@
         </is>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>10:15 PM</t>
+        </is>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>Fed Goolsbee Speech</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr"/>
+      <c r="D2341" t="inlineStr"/>
+      <c r="E2341" t="inlineStr"/>
+      <c r="F2341" t="inlineStr"/>
+      <c r="G2341" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -62327,7 +62327,11 @@
           <t>5.9%</t>
         </is>
       </c>
-      <c r="E2278" t="inlineStr"/>
+      <c r="E2278" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
+      </c>
       <c r="F2278" t="inlineStr">
         <is>
           <t>4%</t>
